--- a/Project Outputs for PowerBoard/r.0.1/BOM/Bill of Materials-PowerBoard.xlsx
+++ b/Project Outputs for PowerBoard/r.0.1/BOM/Bill of Materials-PowerBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\леша\DiWo\PowerBoard\Project Outputs for PowerBoard\r.0.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC98845-D5E5-498B-BC6E-016CE73293F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB0E099-4EE4-48F8-AA53-884F187206F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
   <si>
     <t>Source Data From:</t>
   </si>
@@ -113,7 +113,7 @@
     <t>25.05.2023</t>
   </si>
   <si>
-    <t>21:06</t>
+    <t>23:17</t>
   </si>
   <si>
     <t>Line #</t>
@@ -161,7 +161,7 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R2, R13</t>
   </si>
   <si>
     <t>R3</t>
@@ -188,9 +188,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>VD1, VD3, VD4</t>
   </si>
   <si>
@@ -230,6 +227,12 @@
     <t>CC0603JRNPO9BN680</t>
   </si>
   <si>
+    <t>CC0603MRX6S5BB106</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB104</t>
+  </si>
+  <si>
     <t>TPS54202DDCR</t>
   </si>
   <si>
@@ -317,7 +320,10 @@
     <t>CAP CER 68PF 50V C0G/NPO 0603</t>
   </si>
   <si>
-    <t>CAP CER 10uF 50V C0G/NPO 0603</t>
+    <t>CAP CER 10uF 6.3V C0G/NPO 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1uF 50V C0G/NPO 0603</t>
   </si>
   <si>
     <t>Power Supply</t>
@@ -462,7 +468,7 @@
     <t>SOT95P280X110-6N</t>
   </si>
   <si>
-    <t>UMW 7550-1</t>
+    <t>SOT23-3</t>
   </si>
   <si>
     <t>STLM20DD9F - duplicate</t>
@@ -519,9 +525,6 @@
     <t>https://static.chipdip.ru/lib/513/DOC010513657.pdf</t>
   </si>
   <si>
-    <t>https://www.umw-ic.com/static/pdf/889f53c2615ebf19420d363720ec8c92.pdf</t>
-  </si>
-  <si>
     <t>https://www.compel.ru/item-pdf/a7e49e4dedba0033f1ae17c65d4c1409/pn/st~stlm20dd9f.pdf</t>
   </si>
   <si>
@@ -567,7 +570,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>25.05.2023 21:06</t>
+    <t>25.05.2023 23:17</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1891,10 +1894,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2125,22 +2128,22 @@
         <v>31</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I11" s="83" t="s">
         <v>21</v>
@@ -2149,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,32 +2163,33 @@
         <v>32</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="115" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H12" s="93">
         <v>1</v>
       </c>
       <c r="I12" s="93">
-        <v>190</v>
+        <f t="shared" ref="I12:I41" si="0">ROUNDUP( H12*Order_amount, 10 )</f>
+        <v>50</v>
       </c>
       <c r="J12" s="93">
-        <f t="shared" ref="J12:J42" si="0">I12+10</f>
-        <v>200</v>
+        <f t="shared" ref="J12:J41" si="1">I12+10</f>
+        <v>60</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,32 +2200,33 @@
         <v>33</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="56">
         <v>5</v>
       </c>
       <c r="I13" s="56">
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="J13" s="56">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>260</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,32 +2237,33 @@
         <v>34</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H14" s="93">
         <v>2</v>
       </c>
       <c r="I14" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J14" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
@@ -2273,32 +2279,33 @@
         <v>35</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15" s="128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H15" s="56">
         <v>1</v>
       </c>
       <c r="I15" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J15" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2312,29 +2319,30 @@
         <v>67</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H16" s="93">
         <v>2</v>
       </c>
       <c r="I16" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J16" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
@@ -2350,32 +2358,33 @@
         <v>37</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E17" s="116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H17" s="56">
         <v>3</v>
       </c>
       <c r="I17" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J17" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,29 +2395,29 @@
         <v>38</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" s="115"/>
       <c r="F18" s="93"/>
       <c r="G18" s="127" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="93">
         <v>1</v>
       </c>
       <c r="I18" s="93">
-        <f t="shared" ref="I12:I42" si="1">ROUNDUP( H18*Order_amount, 10 )</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J18" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L18" s="92"/>
       <c r="M18" s="92"/>
@@ -2417,34 +2426,33 @@
       <c r="P18" s="92"/>
     </row>
     <row r="19" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
+      <c r="A19" s="68">
+        <v>8</v>
+      </c>
       <c r="B19" s="99" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="116"/>
       <c r="F19" s="56"/>
       <c r="G19" s="128" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="56">
         <v>1</v>
       </c>
       <c r="I19" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J19" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J19" s="56">
-        <f t="shared" si="0"/>
         <v>60</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,29 +2463,29 @@
         <v>40</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E20" s="115"/>
       <c r="F20" s="93"/>
       <c r="G20" s="127" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H20" s="93">
         <v>1</v>
       </c>
       <c r="I20" s="93">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="93">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J20" s="93">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L20" s="92"/>
       <c r="M20" s="92"/>
@@ -2493,29 +2501,29 @@
         <v>41</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="135" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21" s="116"/>
       <c r="F21" s="56"/>
       <c r="G21" s="128" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H21" s="56">
         <v>1</v>
       </c>
       <c r="I21" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J21" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J21" s="56">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2526,30 +2534,31 @@
         <v>42</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="115"/>
       <c r="F22" s="93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="93">
         <v>1</v>
       </c>
       <c r="I22" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J22" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
@@ -2565,33 +2574,33 @@
         <v>43</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E23" s="116" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="128" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H23" s="56">
         <v>1</v>
       </c>
       <c r="I23" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J23" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J23" s="56">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2602,32 +2611,33 @@
         <v>44</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24" s="115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="93">
         <v>1</v>
       </c>
       <c r="I24" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J24" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="92"/>
       <c r="M24" s="92"/>
@@ -2643,32 +2653,33 @@
         <v>45</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E25" s="116" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G25" s="128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H25" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J25" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2679,32 +2690,33 @@
         <v>46</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E26" s="115" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F26" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H26" s="93">
         <v>1</v>
       </c>
       <c r="I26" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J26" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" s="92"/>
       <c r="M26" s="92"/>
@@ -2720,32 +2732,33 @@
         <v>47</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E27" s="116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G27" s="128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H27" s="56">
         <v>3</v>
       </c>
       <c r="I27" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J27" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2756,32 +2769,33 @@
         <v>48</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E28" s="115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H28" s="93">
         <v>1</v>
       </c>
       <c r="I28" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J28" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" s="92"/>
       <c r="M28" s="92"/>
@@ -2797,32 +2811,33 @@
         <v>49</v>
       </c>
       <c r="C29" s="126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E29" s="116" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G29" s="128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H29" s="56">
         <v>1</v>
       </c>
       <c r="I29" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J29" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,32 +2848,33 @@
         <v>50</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F30" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H30" s="93">
         <v>1</v>
       </c>
       <c r="I30" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J30" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K30" s="92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L30" s="92"/>
       <c r="M30" s="92"/>
@@ -2874,32 +2890,33 @@
         <v>51</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="116" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G31" s="128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H31" s="56">
         <v>1</v>
       </c>
       <c r="I31" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J31" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2910,32 +2927,33 @@
         <v>52</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" s="115">
         <v>51</v>
       </c>
       <c r="F32" s="93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G32" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H32" s="93">
         <v>1</v>
       </c>
       <c r="I32" s="93">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J32" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" s="92"/>
       <c r="M32" s="92"/>
@@ -2951,66 +2969,68 @@
         <v>53</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" s="116" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G33" s="128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H33" s="56">
         <v>1</v>
       </c>
       <c r="I33" s="56">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J33" s="56">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
+      <c r="A34" s="91">
+        <v>23</v>
+      </c>
       <c r="B34" s="98" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="115" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="93" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G34" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="93">
+        <v>3</v>
+      </c>
+      <c r="I34" s="93">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H34" s="93">
-        <v>1</v>
-      </c>
-      <c r="I34" s="93">
-        <v>190</v>
-      </c>
       <c r="J34" s="93">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L34" s="92"/>
       <c r="M34" s="92"/>
@@ -3026,31 +3046,31 @@
         <v>55</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E35" s="116"/>
       <c r="F35" s="56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G35" s="128" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H35" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="56">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J35" s="56">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="J35" s="56">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K35" s="54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,31 +3081,31 @@
         <v>56</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="93" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G36" s="127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H36" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="93">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J36" s="93">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J36" s="93">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
@@ -3101,31 +3121,29 @@
         <v>57</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E37" s="116"/>
-      <c r="F37" s="56" t="s">
-        <v>138</v>
-      </c>
+      <c r="F37" s="56"/>
       <c r="G37" s="128" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H37" s="56">
         <v>1</v>
       </c>
       <c r="I37" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J37" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J37" s="56">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3136,29 +3154,31 @@
         <v>58</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E38" s="115"/>
-      <c r="F38" s="93"/>
+      <c r="F38" s="93" t="s">
+        <v>141</v>
+      </c>
       <c r="G38" s="127" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H38" s="93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="93">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J38" s="93">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J38" s="93">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K38" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
@@ -3174,31 +3194,31 @@
         <v>59</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E39" s="116"/>
       <c r="F39" s="56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G39" s="128" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H39" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="56">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="J39" s="56">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,31 +3229,29 @@
         <v>60</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D40" s="92" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E40" s="115"/>
-      <c r="F40" s="93" t="s">
-        <v>140</v>
-      </c>
+      <c r="F40" s="93"/>
       <c r="G40" s="127" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="H40" s="93">
         <v>1</v>
       </c>
       <c r="I40" s="93">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J40" s="93">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J40" s="93">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K40" s="92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
@@ -3241,7 +3259,7 @@
       <c r="O40" s="92"/>
       <c r="P40" s="92"/>
     </row>
-    <row r="41" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68">
         <v>30</v>
       </c>
@@ -3249,110 +3267,95 @@
         <v>61</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E41" s="116"/>
       <c r="F41" s="56"/>
       <c r="G41" s="128" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H41" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="56">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J41" s="56">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J41" s="56">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K41" s="54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91">
-        <v>31</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="115"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="93">
-        <v>2</v>
-      </c>
-      <c r="I42" s="93">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J42" s="93">
-        <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="1:16" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70" t="s">
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="69"/>
+      <c r="I42" s="84"/>
+    </row>
+    <row r="43" spans="1:16" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="49" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="25" t="s">
+      <c r="D43" s="49"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="25" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="44" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="26"/>
+    </row>
     <row r="45" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="39"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="26"/>
     </row>
     <row r="46" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3391,30 +3394,30 @@
       <c r="O47" s="35"/>
       <c r="P47" s="26"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="35"/>
+    <row r="48" spans="1:16" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="73"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="26"/>
     </row>
-    <row r="49" spans="1:16" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="120"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3428,58 +3431,40 @@
       <c r="P49" s="26"/>
     </row>
     <row r="50" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="36"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="18"/>
       <c r="P50" s="26"/>
     </row>
     <row r="51" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="18"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="26"/>
-    </row>
-    <row r="52" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
@@ -3509,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="136" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3541,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3557,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3589,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3597,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3605,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3613,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for PowerBoard/r.0.1/BOM/Bill of Materials-PowerBoard.xlsx
+++ b/Project Outputs for PowerBoard/r.0.1/BOM/Bill of Materials-PowerBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\леша\DiWo\PowerBoard\Project Outputs for PowerBoard\r.0.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB0E099-4EE4-48F8-AA53-884F187206F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C82A51-C0BE-4DCD-865B-B087015119F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="188">
   <si>
     <t>Source Data From:</t>
   </si>
@@ -110,10 +110,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>25.05.2023</t>
-  </si>
-  <si>
-    <t>23:17</t>
+    <t>26.05.2023</t>
+  </si>
+  <si>
+    <t>9:37</t>
   </si>
   <si>
     <t>Line #</t>
@@ -122,6 +122,9 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>DA4</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -134,7 +137,10 @@
     <t>C7</t>
   </si>
   <si>
-    <t>C8, C10</t>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C10</t>
   </si>
   <si>
     <t>C11, C13, C14</t>
@@ -149,9 +155,6 @@
     <t>DA3</t>
   </si>
   <si>
-    <t>DA4</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>Part Number</t>
   </si>
   <si>
+    <t>RS8907XC5</t>
+  </si>
+  <si>
     <t>CL21A475KBQNNNE</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>CC0603JRNPO9BN680</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM188R6YA106MA73D </t>
+  </si>
+  <si>
     <t>CC0603MRX6S5BB106</t>
   </si>
   <si>
@@ -242,9 +251,6 @@
     <t>STLM20W87F</t>
   </si>
   <si>
-    <t>RS8907XC5</t>
-  </si>
-  <si>
     <t>0603L075SLYR</t>
   </si>
   <si>
@@ -306,36 +312,39 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>CAP CER 4.7UF 50V X5R 0805</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 50V X7R 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 22UF 10V X5R 0805</t>
-  </si>
-  <si>
-    <t>CAP CER 68PF 50V C0G/NPO 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 10uF 6.3V C0G/NPO 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1uF 50V C0G/NPO 0603</t>
-  </si>
-  <si>
-    <t>Power Supply</t>
-  </si>
-  <si>
-    <t>Ultra-low current 2.4 V precision analog temperature sensor</t>
   </si>
   <si>
     <t>Nano-Power, CMOS Input, RRIO,_x000D_
 Push-Pull Output Comparator</t>
   </si>
   <si>
+    <t>CAP CER 4.7UF 50V X5R 0805</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 10V X5R 0805</t>
+  </si>
+  <si>
+    <t>CAP CER 68PF 50V C0G/NPO 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 10uF 35V C0G/NPO 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 10uF 6.3V C0G/NPO 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1uF 50V C0G/NPO 0603</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Ultra-low current 2.4 V precision analog temperature sensor</t>
+  </si>
+  <si>
     <t>PTC RESET FUSE 6V 750MA 0603</t>
   </si>
   <si>
@@ -459,6 +468,9 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
     <t>C0805 (2012 Metric) N</t>
   </si>
   <si>
@@ -474,9 +486,6 @@
     <t>STLM20DD9F - duplicate</t>
   </si>
   <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
     <t>F0603 (1608 Metric) N</t>
   </si>
   <si>
@@ -510,6 +519,9 @@
     <t>ComponentLink1URL</t>
   </si>
   <si>
+    <t>https://data.electronshik.ru/z/Datasheet/R/RS8907.pdf</t>
+  </si>
+  <si>
     <t>http://www.samsungsem.com/kr/support/product-search/mlcc/CL21A475KBQNNNE.jsp</t>
   </si>
   <si>
@@ -528,9 +540,6 @@
     <t>https://www.compel.ru/item-pdf/a7e49e4dedba0033f1ae17c65d4c1409/pn/st~stlm20dd9f.pdf</t>
   </si>
   <si>
-    <t>https://data.electronshik.ru/z/Datasheet/R/RS8907.pdf</t>
-  </si>
-  <si>
     <t>http://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_lorho_datasheet.pdf.pdf</t>
   </si>
   <si>
@@ -570,7 +579,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>25.05.2023 23:17</t>
+    <t>26.05.2023 9:37</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1468,8 +1477,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1894,10 +1903,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2128,22 +2137,22 @@
         <v>31</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I11" s="83" t="s">
         <v>21</v>
@@ -2152,118 +2161,112 @@
         <v>22</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91">
-        <v>1</v>
-      </c>
+      <c r="A12" s="91"/>
       <c r="B12" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>134</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D12" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="115"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="127" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H12" s="93">
         <v>1</v>
       </c>
       <c r="I12" s="93">
-        <f t="shared" ref="I12:I41" si="0">ROUNDUP( H12*Order_amount, 10 )</f>
+        <f t="shared" ref="I12:I42" si="0">ROUNDUP( H12*Order_amount, 10 )</f>
         <v>50</v>
       </c>
       <c r="J12" s="93">
-        <f t="shared" ref="J12:J41" si="1">I12+10</f>
+        <f t="shared" ref="J12:J42" si="1">I12+10</f>
         <v>60</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="99" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G13" s="128" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H13" s="56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="56">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="J13" s="56">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="98" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H14" s="93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="93">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J14" s="93">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
@@ -2273,76 +2276,76 @@
     </row>
     <row r="15" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="99" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G15" s="128" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H15" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="56">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J15" s="56">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="98" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H16" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="93">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
@@ -2352,58 +2355,62 @@
     </row>
     <row r="17" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="99" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="116" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G17" s="128" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H17" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="56">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J17" s="56">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="98" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="93"/>
+        <v>102</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="127" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H18" s="93">
         <v>1</v>
@@ -2417,7 +2424,7 @@
         <v>60</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L18" s="92"/>
       <c r="M18" s="92"/>
@@ -2427,51 +2434,58 @@
     </row>
     <row r="19" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="99" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="E19" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>138</v>
+      </c>
       <c r="G19" s="128" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H19" s="56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="56">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J19" s="56">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>160</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="98" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E20" s="115"/>
       <c r="F20" s="93"/>
       <c r="G20" s="127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="93">
         <v>1</v>
@@ -2485,7 +2499,7 @@
         <v>60</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L20" s="92"/>
       <c r="M20" s="92"/>
@@ -2495,21 +2509,21 @@
     </row>
     <row r="21" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="99" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="135" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="E21" s="116"/>
       <c r="F21" s="56"/>
       <c r="G21" s="128" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H21" s="56">
         <v>1</v>
@@ -2522,29 +2536,24 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K21" s="54" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="22" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="98" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E22" s="115"/>
-      <c r="F22" s="93" t="s">
-        <v>136</v>
-      </c>
+      <c r="F22" s="93"/>
       <c r="G22" s="127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="93">
         <v>1</v>
@@ -2558,7 +2567,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
@@ -2574,19 +2583,17 @@
         <v>43</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="116" t="s">
-        <v>123</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E23" s="116"/>
       <c r="F23" s="56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="128" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" s="56">
         <v>1</v>
@@ -2600,7 +2607,7 @@
         <v>60</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,19 +2618,19 @@
         <v>44</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" s="115" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" s="93" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="93">
         <v>1</v>
@@ -2637,7 +2644,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="92"/>
       <c r="M24" s="92"/>
@@ -2653,33 +2660,33 @@
         <v>45</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G25" s="128" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H25" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="56">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J25" s="56">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,33 +2697,33 @@
         <v>46</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26" s="115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F26" s="93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G26" s="127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="93">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J26" s="93">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L26" s="92"/>
       <c r="M26" s="92"/>
@@ -2732,33 +2739,33 @@
         <v>47</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="116" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G27" s="128" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H27" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="56">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J27" s="56">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,33 +2776,33 @@
         <v>48</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" s="115" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H28" s="93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="93">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J28" s="93">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L28" s="92"/>
       <c r="M28" s="92"/>
@@ -2811,19 +2818,19 @@
         <v>49</v>
       </c>
       <c r="C29" s="126" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E29" s="116" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G29" s="128" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H29" s="56">
         <v>1</v>
@@ -2837,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,19 +2855,19 @@
         <v>50</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E30" s="115" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F30" s="93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H30" s="93">
         <v>1</v>
@@ -2874,7 +2881,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="92" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L30" s="92"/>
       <c r="M30" s="92"/>
@@ -2890,19 +2897,19 @@
         <v>51</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E31" s="116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G31" s="128" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H31" s="56">
         <v>1</v>
@@ -2916,7 +2923,7 @@
         <v>60</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2927,19 +2934,19 @@
         <v>52</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="115">
-        <v>51</v>
+      <c r="E32" s="115" t="s">
+        <v>134</v>
       </c>
       <c r="F32" s="93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G32" s="127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H32" s="93">
         <v>1</v>
@@ -2953,7 +2960,7 @@
         <v>60</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L32" s="92"/>
       <c r="M32" s="92"/>
@@ -2969,19 +2976,19 @@
         <v>53</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="116" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="E33" s="116">
+        <v>51</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G33" s="128" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H33" s="56">
         <v>1</v>
@@ -2995,7 +3002,7 @@
         <v>60</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3006,31 +3013,33 @@
         <v>54</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="115"/>
+        <v>111</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>135</v>
+      </c>
       <c r="F34" s="93" t="s">
         <v>138</v>
       </c>
       <c r="G34" s="127" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H34" s="93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="93">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J34" s="93">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L34" s="92"/>
       <c r="M34" s="92"/>
@@ -3046,31 +3055,31 @@
         <v>55</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" s="116"/>
       <c r="F35" s="56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" s="128" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H35" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="56">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J35" s="56">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K35" s="54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,31 +3090,31 @@
         <v>56</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="93" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G36" s="127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H36" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="93">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J36" s="93">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
@@ -3121,15 +3130,17 @@
         <v>57</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E37" s="116"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="56" t="s">
+        <v>143</v>
+      </c>
       <c r="G37" s="128" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H37" s="56">
         <v>1</v>
@@ -3143,7 +3154,7 @@
         <v>60</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,31 +3165,29 @@
         <v>58</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" s="115"/>
-      <c r="F38" s="93" t="s">
-        <v>141</v>
-      </c>
+      <c r="F38" s="93"/>
       <c r="G38" s="127" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H38" s="93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="93">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J38" s="93">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K38" s="92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
@@ -3194,31 +3203,31 @@
         <v>59</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" s="116"/>
       <c r="F39" s="56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G39" s="128" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H39" s="56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="56">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J39" s="56">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3229,15 +3238,17 @@
         <v>60</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="92" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="115"/>
-      <c r="F40" s="93"/>
+      <c r="F40" s="93" t="s">
+        <v>145</v>
+      </c>
       <c r="G40" s="127" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="H40" s="93">
         <v>1</v>
@@ -3251,7 +3262,7 @@
         <v>60</v>
       </c>
       <c r="K40" s="92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
@@ -3259,7 +3270,7 @@
       <c r="O40" s="92"/>
       <c r="P40" s="92"/>
     </row>
-    <row r="41" spans="1:16" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68">
         <v>30</v>
       </c>
@@ -3267,95 +3278,110 @@
         <v>61</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E41" s="116"/>
       <c r="F41" s="56"/>
       <c r="G41" s="128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="56">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J41" s="56">
         <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="91">
+        <v>31</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="115"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="93">
+        <v>2</v>
+      </c>
+      <c r="I42" s="93">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J42" s="93">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
-      <c r="I42" s="84"/>
-    </row>
-    <row r="43" spans="1:16" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70" t="s">
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="69"/>
+      <c r="I43" s="84"/>
+    </row>
+    <row r="44" spans="1:16" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="49" t="s">
+      <c r="B44" s="101"/>
+      <c r="C44" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="25" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="26"/>
-    </row>
     <row r="45" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="35"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="39"/>
       <c r="P45" s="26"/>
     </row>
     <row r="46" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3394,30 +3420,30 @@
       <c r="O47" s="35"/>
       <c r="P47" s="26"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="36"/>
+    <row r="48" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="26"/>
     </row>
-    <row r="49" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="120"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3431,40 +3457,58 @@
       <c r="P49" s="26"/>
     </row>
     <row r="50" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="18"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="26"/>
     </row>
     <row r="51" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="18"/>
       <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="1:16" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="75"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
@@ -3494,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="136" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3526,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3566,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3574,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3598,7 +3642,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="139" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
